--- a/PlayersTCDietlikonWinter2018.xlsx
+++ b/PlayersTCDietlikonWinter2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sascha\eclipse-workspace\MATSim\tcDietlikon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4E9A41-1C05-48C1-9068-6504F4204A53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E014046-59A3-4019-9DFF-B5599BBA1F31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="228">
   <si>
     <t>Instruktionen</t>
   </si>
@@ -1414,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D828C0A7-05BC-4B7C-838E-09BED5A53DFE}">
   <dimension ref="A1:G567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="B568" sqref="B568"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1606,8 +1606,8 @@
       <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="E13" s="11">
-        <v>8</v>
+      <c r="E13" s="11" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">

--- a/PlayersTCDietlikonWinter2018.xlsx
+++ b/PlayersTCDietlikonWinter2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sascha\eclipse-workspace\MATSim\tcDietlikon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A63921-4051-4180-836B-E9124BC25CE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44D0AAC-323F-4B4D-8FAE-80CE949F4580}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:G576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
